--- a/results/pvalue_OFFSIDES_all_indication_AUPRperdrug.xlsx
+++ b/results/pvalue_OFFSIDES_all_indication_AUPRperdrug.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>15.241</t>
+          <t>9.803</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14.585</t>
+          <t>9.271</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17.131</t>
+          <t>11.796</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>15.918</t>
+          <t>9.957</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>32.023</t>
+          <t>36.31</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
